--- a/mbs-perturbation/mega/knn/smote/mega-knn-smote-results.xlsx
+++ b/mbs-perturbation/mega/knn/smote/mega-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6901960784313725</v>
+        <v>0.7327935222672065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.946236559139785</v>
+        <v>0.9731182795698925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7981859410430839</v>
+        <v>0.8360277136258661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8179124754306856</v>
+        <v>0.8330731876517516</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8355263157894737</v>
+        <v>0.9103448275862069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6827956989247311</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7514792899408282</v>
+        <v>0.797583081570997</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8334200485605272</v>
+        <v>0.8547519944502253</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8654970760233918</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8291316526610644</v>
+        <v>0.8645833333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9000751531969015</v>
+        <v>0.9087900335298879</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7688172043010753</v>
+        <v>0.6346863468634686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7688172043010753</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7688172043010751</v>
+        <v>0.7527352297592996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8217088055797733</v>
+        <v>0.7602731764022086</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8388888888888889</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8162162162162162</v>
+        <v>0.9243243243243243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8273972602739725</v>
+        <v>0.7323340471092078</v>
       </c>
       <c r="E6" t="n">
-        <v>0.893315896541703</v>
+        <v>0.819471083987213</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7997851126868404</v>
+        <v>0.7445183027648248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.801952920662598</v>
+        <v>0.8848648648648648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7950022696440048</v>
+        <v>0.7966526810797407</v>
       </c>
       <c r="E7" t="n">
-        <v>0.853286475861918</v>
+        <v>0.8352718952042573</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/knn/smote/mega-knn-smote-results.xlsx
+++ b/mbs-perturbation/mega/knn/smote/mega-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7327935222672065</v>
+        <v>0.6912442396313364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9731182795698925</v>
+        <v>0.8875739644970414</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8360277136258661</v>
+        <v>0.7772020725388601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8330731876517516</v>
+        <v>0.8131893140996463</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9103448275862069</v>
+        <v>0.6307053941908713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8994082840236687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.797583081570997</v>
+        <v>0.7414634146341462</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8547519944502253</v>
+        <v>0.7503238682118973</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.8698224852071006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8645833333333334</v>
+        <v>0.8076923076923076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9087900335298879</v>
+        <v>0.9123980252792269</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6346863468634686</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.8757396449704142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7527352297592996</v>
+        <v>0.9337539432176656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7602731764022086</v>
+        <v>0.9950807044571269</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6063829787234043</v>
+        <v>0.9794520547945206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9243243243243243</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7323340471092078</v>
+        <v>0.9079365079365079</v>
       </c>
       <c r="E6" t="n">
-        <v>0.819471083987213</v>
+        <v>0.9935926613213824</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7445183027648248</v>
+        <v>0.8110495684925765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8848648648648648</v>
+        <v>0.8757396449704142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7966526810797407</v>
+        <v>0.8336096492038975</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8352718952042573</v>
+        <v>0.8929169146738559</v>
       </c>
     </row>
   </sheetData>
